--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -513,10 +513,10 @@
         <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,22 @@
         <v>150</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Trash Cans</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,10 +465,10 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -513,10 +513,10 @@
         <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +542,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Trash Bags</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>200</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,10 +481,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -565,6 +565,22 @@
       </c>
       <c r="D8" t="n">
         <v>150</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Soap</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>500</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -529,10 +529,10 @@
         <v>150</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
